--- a/onlyoffice_odoo/static/assets/document_templates/lv-LV/new.xlsx
+++ b/onlyoffice_odoo/static/assets/document_templates/lv-LV/new.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
